--- a/Calculations.xlsx
+++ b/Calculations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Home</t>
   </si>
@@ -84,6 +84,51 @@
   </si>
   <si>
     <t>bank</t>
+  </si>
+  <si>
+    <t>1. READ1 A</t>
+  </si>
+  <si>
+    <t>2. READ2 A</t>
+  </si>
+  <si>
+    <t>3. MULT</t>
+  </si>
+  <si>
+    <t>4. WRITE T</t>
+  </si>
+  <si>
+    <t>5. READ1 T</t>
+  </si>
+  <si>
+    <t>6. MULT</t>
+  </si>
+  <si>
+    <t>7. WRITE T</t>
+  </si>
+  <si>
+    <t>8. READ1 B</t>
+  </si>
+  <si>
+    <t>9. READ2 B</t>
+  </si>
+  <si>
+    <t>10. MULT</t>
+  </si>
+  <si>
+    <t>11. WRITE C</t>
+  </si>
+  <si>
+    <t>12. READ1 T</t>
+  </si>
+  <si>
+    <t>13. READ2 C</t>
+  </si>
+  <si>
+    <t>14. ADD</t>
+  </si>
+  <si>
+    <t>15. WRITE C</t>
   </si>
 </sst>
 </file>
@@ -465,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="K3">
-        <f>SUM(G3:J3)</f>
+        <f t="shared" ref="K3:K8" si="0">SUM(G3:J3)</f>
         <v>19</v>
       </c>
       <c r="L3" t="s">
@@ -573,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <f>SUM(G4:J4)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="L4" t="s">
@@ -609,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="K5">
-        <f>SUM(G5:J5)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="L5" t="s">
@@ -645,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="K6">
-        <f>SUM(G6:J6)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="L6" t="s">
@@ -666,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="K7">
-        <f>SUM(G7:J7)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="L7" t="s">
@@ -687,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="K8">
-        <f>SUM(G8:J8)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="L8" t="s">
@@ -739,6 +784,81 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
